--- a/Data/Datenaustausch Android-PI-GUI.xlsx
+++ b/Data/Datenaustausch Android-PI-GUI.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Documents\Schule\Diplomarbeit\Raspberry PI\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Documents\Schule\Diplomarbeit\Raspberry PI\Java\Diplomarbeit-Garagenueberwachung\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="13">
   <si>
     <t>Datenaustausch zwischen Android and RaspberryPI and GUI</t>
   </si>
@@ -51,6 +51,18 @@
   </si>
   <si>
     <t>unten</t>
+  </si>
+  <si>
+    <t>Reg</t>
+  </si>
+  <si>
+    <t>Zeit</t>
+  </si>
+  <si>
+    <t>min</t>
+  </si>
+  <si>
+    <t>sec</t>
   </si>
 </sst>
 </file>
@@ -158,19 +170,6 @@
   </cellStyles>
   <dxfs count="9">
     <dxf>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left/>
         <right/>
@@ -179,11 +178,12 @@
       </border>
     </dxf>
     <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left/>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
+        <right/>
         <top/>
         <bottom/>
       </border>
@@ -200,15 +200,9 @@
     </dxf>
     <dxf>
       <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
         <right/>
         <top/>
         <bottom/>
@@ -224,6 +218,24 @@
         <bottom/>
         <vertical/>
         <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
       </border>
     </dxf>
     <dxf>
@@ -256,13 +268,13 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{628DD406-900A-4B4B-8528-6DD39BA450CC}" name="Tabelle1" displayName="Tabelle1" ref="A4:E28" headerRowCount="0" totalsRowShown="0" tableBorderDxfId="8">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{628DD406-900A-4B4B-8528-6DD39BA450CC}" name="Tabelle1" displayName="Tabelle1" ref="A4:E30" headerRowCount="0" totalsRowShown="0" tableBorderDxfId="8">
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{ADE7B149-8F6D-4AE3-AA49-0605484E385A}" name="Spalte1" headerRowDxfId="2"/>
-    <tableColumn id="2" xr3:uid="{5F936DA0-0878-4582-9ADD-46C1C8F0CC54}" name="Spalte2" headerRowDxfId="3" dataDxfId="7"/>
-    <tableColumn id="3" xr3:uid="{A92BF746-19DF-463C-A7B9-F39225298D82}" name="Spalte3" headerRowDxfId="4" dataDxfId="1"/>
-    <tableColumn id="4" xr3:uid="{068C43A3-C93A-423C-B294-49ADDEC59349}" name="Spalte4" headerRowDxfId="5" dataDxfId="0"/>
-    <tableColumn id="5" xr3:uid="{6B1E5790-C6D1-4503-932B-7CB2BFD88FAB}" name="Spalte5" headerRowDxfId="6"/>
+    <tableColumn id="1" xr3:uid="{ADE7B149-8F6D-4AE3-AA49-0605484E385A}" name="Spalte1" headerRowDxfId="7"/>
+    <tableColumn id="2" xr3:uid="{5F936DA0-0878-4582-9ADD-46C1C8F0CC54}" name="Spalte2" headerRowDxfId="6" dataDxfId="5"/>
+    <tableColumn id="3" xr3:uid="{A92BF746-19DF-463C-A7B9-F39225298D82}" name="Spalte3" headerRowDxfId="4" dataDxfId="3"/>
+    <tableColumn id="4" xr3:uid="{068C43A3-C93A-423C-B294-49ADDEC59349}" name="Spalte4" headerRowDxfId="2" dataDxfId="1"/>
+    <tableColumn id="5" xr3:uid="{6B1E5790-C6D1-4503-932B-7CB2BFD88FAB}" name="Spalte5" headerRowDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -565,10 +577,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9652757D-12E7-42A5-88F0-5BE8DD4A8BDE}">
-  <dimension ref="A1:E28"/>
+  <dimension ref="A1:E30"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" view="pageLayout" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
+    <sheetView showGridLines="0" tabSelected="1" view="pageLayout" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C31" sqref="C31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1000,6 +1012,35 @@
         <v>7</v>
       </c>
     </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A29" s="1">
+        <v>1</v>
+      </c>
+      <c r="B29" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C29" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D29" s="9"/>
+      <c r="E29" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>2</v>
+      </c>
+      <c r="B30" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C30" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E30" t="s">
+        <v>12</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
